--- a/数据整理/stocks/A股/深证主板/000671-阳光城.xlsx
+++ b/数据整理/stocks/A股/深证主板/000671-阳光城.xlsx
@@ -451,743 +451,1001 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2398</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9949</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7623</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7623</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2509</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7251</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5053</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5053</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4817</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>48.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>48.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>006104</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>华泰柏瑞量化智慧灵活配置混合C</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>92.33</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006551</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中庚价值领航混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010246</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>960017</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银稳健配置混合H</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>66.61</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>540003</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇丰晋信动态策略混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519181</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万家和谐增长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161721</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商沪深300地产等权重指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>257010</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国联安小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>70.37</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519690</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>交银稳健配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>66.61</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001244</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>460009</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006138</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国联安价值优选股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001264</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银华恒利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>48.51</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000326</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方中小盘成长股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>90.62</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001518</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>万家瑞兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007130</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中庚小盘价值股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002327</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>银华恒利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>48.51</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002367</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国联安安稳灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>39.96</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>960003</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>汇丰晋信动态策略混合H</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>59.88</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005576</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>519191</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>万家新利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>519212</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>万家宏观择时多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008116</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>银华沪深股通精选混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>87.52</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>000327</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>南方潜力新蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1197,7 +1455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,15 +1476,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1238,25 +1506,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003561</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺德成长精选灵活配置混合A</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>67.55</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6907</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1266,25 +1544,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003562</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺德成长精选灵活配置混合C</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>67.55</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0046</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010923</t>
+          <t>519690</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>永赢鑫欣混合</t>
+          <t>交银稳健配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.47</t>
+          <t>21.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7898</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>519181</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>万家和谐增长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27.10</t>
+          <t>13.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6761</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1350,25 +1658,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004914</t>
+          <t>257010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合C</t>
+          <t>国联安小盘精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.10</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1378,25 +1696,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>570005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>诺德成长优势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>76.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4462</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005055</t>
+          <t>519185</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+          <t>万家精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006532</t>
+          <t>161721</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+          <t>招商沪深300地产等权重指数</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>002367</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>国联安安稳灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005638</t>
+          <t>010923</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>农银汇理量化智慧动力混合</t>
+          <t>永赢鑫欣混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>73.37</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000259</t>
+          <t>008116</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>农银区间收益混合</t>
+          <t>银华沪深股通精选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>53.86</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000326</t>
+          <t>000877</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方中小盘成长股票</t>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>87.93</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000327</t>
+          <t>000259</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方潜力新蓝筹混合</t>
+          <t>农银区间收益混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.03</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>53.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006138</t>
+          <t>000326</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国联安价值优选股票</t>
+          <t>南方中小盘成长股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>257010</t>
+          <t>001074</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国联安小盘精选混合</t>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>74.19</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1686,25 +2114,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>003561</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>诺德成长精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000877</t>
+          <t>005632</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化优选灵活配置混合</t>
+          <t>鹏华量化先锋混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>88.50</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>001244</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>000327</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>南方潜力新蓝筹混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006942</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合A</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006943</t>
+          <t>005055</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合C</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1854,26 +2342,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001074</t>
+          <t>001264</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+          <t>银华恒利灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>74.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006531</t>
+          <t>006138</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+          <t>国联安价值优选股票</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001244</t>
+          <t>005638</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+          <t>农银汇理量化智慧动力混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
+          <t>73.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>006104</t>
+          <t>006942</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+          <t>华泰柏瑞量化明选混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001264</t>
+          <t>003275</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>银华恒利灵活配置混合A</t>
+          <t>国联安添利增长债券A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>74.03</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -2004,15 +2542,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>74.03</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>5.89</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2022,26 +2570,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>519181</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>万家和谐增长混合</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2050,26 +2608,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>519185</t>
+          <t>006104</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>万家精选混合</t>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -2078,25 +2646,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>519690</t>
+          <t>003276</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>交银稳健配置混合A</t>
+          <t>国联安添利增长债券C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>84.34</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2106,26 +2684,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>960017</t>
+          <t>006943</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>交银稳健配置混合H</t>
+          <t>华泰柏瑞量化明选混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>84.34</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>9</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>570005</t>
+          <t>006531</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>诺德成长优势混合</t>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>76.89</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -2162,26 +2760,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>161721</t>
+          <t>003562</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>招商沪深300地产等权重指数</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>94.99</t>
-        </is>
-      </c>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>8</v>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2190,26 +2792,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>002367</t>
+          <t>004914</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>国联安安稳灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>42.62</t>
-        </is>
-      </c>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>4</v>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -2218,26 +2824,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>003275</t>
+          <t>006532</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>国联安添利增长债券A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>20.40</t>
-        </is>
-      </c>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>9</v>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -2246,26 +2856,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>003276</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国联安添利增长债券C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>20.40</t>
-        </is>
-      </c>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>9</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2274,26 +2888,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>008116</t>
+          <t>960017</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>银华沪深股通精选混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>87.57</t>
-        </is>
-      </c>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>4</v>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000671-阳光城.xlsx
+++ b/数据整理/stocks/A股/深证主板/000671-阳光城.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2768,7 +2769,6 @@
           <t>诺德成长精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>67.55</t>
@@ -2800,7 +2800,6 @@
           <t>中银证券聚瑞混合C</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>27.10</t>
@@ -2832,7 +2831,6 @@
           <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>91.65</t>
@@ -2864,7 +2862,6 @@
           <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>91.02</t>
@@ -2896,7 +2893,6 @@
           <t>交银稳健配置混合H</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>84.34</t>
@@ -2912,6 +2908,554 @@
       </c>
       <c r="H39" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4463</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8603</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5760</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5496</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000671-阳光城.xlsx
+++ b/数据整理/stocks/A股/深证主板/000671-阳光城.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3461,4 +3462,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4649</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4587</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000671-阳光城.xlsx
+++ b/数据整理/stocks/A股/深证主板/000671-阳光城.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3784,4 +3785,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000671-阳光城.xlsx
+++ b/数据整理/stocks/A股/深证主板/000671-阳光城.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3793,7 +3794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3804,17 +3805,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3824,14 +3845,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.08</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3">
@@ -3840,14 +3935,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>3.74</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="4">
@@ -3856,14 +3951,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>6.62</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="5">
@@ -3872,13 +3967,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>12.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000671-阳光城.xlsx
+++ b/数据整理/stocks/A股/深证主板/000671-阳光城.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3888,7 +3889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3899,17 +3900,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3919,14 +3940,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.91</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="3">
@@ -3935,14 +4030,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.08</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
@@ -3951,14 +4046,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>3.74</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="5">
@@ -3967,14 +4062,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>6.62</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="6">
@@ -3983,13 +4078,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>25</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>12.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000671-阳光城.xlsx
+++ b/数据整理/stocks/A股/深证主板/000671-阳光城.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.91</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.08</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>3.74</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>6.62</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>25</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>12.36</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,36 +656,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501029</t>
+          <t>001959</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+          <t>华商乐享互联灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.19</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3680</t>
+          <t>0.1081</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -733,36 +788,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004702</t>
+          <t>501029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方金融主题灵活配置混合</t>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.03</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9094</t>
+          <t>0.3680</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -771,6 +826,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1092,7 +1241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1640,7 +1789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3105,7 +3254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000671-阳光城.xlsx
+++ b/数据整理/stocks/A股/深证主板/000671-阳光城.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.91</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2.08</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>3.74</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>6.62</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>25</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>12.36</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -724,100 +949,6 @@
       </c>
       <c r="H3" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501029</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.19</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3680</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -882,36 +1013,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004702</t>
+          <t>501029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方金融主题灵活配置混合</t>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.03</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9094</t>
+          <t>0.3680</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -920,6 +1051,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1241,7 +1466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1789,7 +2014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3254,7 +3479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
